--- a/services_percent_of_gdp.xlsx
+++ b/services_percent_of_gdp.xlsx
@@ -5,12 +5,12 @@
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\arthu\Documents\CDados\ProjetoCD1\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\arthu\Documents\Projeto1CD\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F8A3F716-1BDD-44A9-B21B-D6565470A84E}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C58D443E-33DB-4C90-A329-5776355B49F5}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3060" yWindow="2840" windowWidth="10800" windowHeight="7360" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="services_percent_of_gdp" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="360" uniqueCount="175">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="172" uniqueCount="172">
   <si>
     <t>Afghanistan</t>
   </si>
@@ -131,12 +131,6 @@
   </si>
   <si>
     <t>Comoros</t>
-  </si>
-  <si>
-    <t>Congo, Dem. Rep.</t>
-  </si>
-  <si>
-    <t>Congo, Rep.</t>
   </si>
   <si>
     <t>Costa Rica</t>
@@ -538,13 +532,10 @@
     <t>country</t>
   </si>
   <si>
-    <t>SADC</t>
+    <t>Congo</t>
   </si>
   <si>
-    <t>Sim</t>
-  </si>
-  <si>
-    <t>Não</t>
+    <t>Congo Rep</t>
   </si>
 </sst>
 </file>
@@ -586,10 +577,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -930,20 +920,17 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="services_percent_of_gdp"/>
-  <dimension ref="A1:BH188"/>
+  <dimension ref="A1:BG172"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AU1" workbookViewId="0">
-      <selection activeCell="BI5" sqref="BI5"/>
+    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
+      <selection activeCell="A41" sqref="A41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
-  <cols>
-    <col min="60" max="60" width="8.6640625" style="2"/>
-  </cols>
   <sheetData>
-    <row r="1" spans="1:60" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:59" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="B1">
         <v>1960</v>
@@ -1119,11 +1106,8 @@
       <c r="BG1">
         <v>2017</v>
       </c>
-      <c r="BH1" s="2" t="s">
-        <v>172</v>
-      </c>
     </row>
-    <row r="2" spans="1:60" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:59" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -1172,11 +1156,8 @@
       <c r="BF2">
         <v>53</v>
       </c>
-      <c r="BH2" s="2" t="s">
-        <v>173</v>
-      </c>
     </row>
-    <row r="3" spans="1:60" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:59" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>1</v>
       </c>
@@ -1294,11 +1275,8 @@
       <c r="BG3">
         <v>47.3</v>
       </c>
-      <c r="BH3" s="2" t="s">
-        <v>173</v>
-      </c>
     </row>
-    <row r="4" spans="1:60" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:59" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>2</v>
       </c>
@@ -1311,11 +1289,8 @@
       <c r="BG4">
         <v>44.1</v>
       </c>
-      <c r="BH4" s="2" t="s">
-        <v>173</v>
-      </c>
     </row>
-    <row r="5" spans="1:60" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:59" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>3</v>
       </c>
@@ -1370,11 +1345,8 @@
       <c r="BF5">
         <v>79.2</v>
       </c>
-      <c r="BH5" s="2" t="s">
-        <v>173</v>
-      </c>
     </row>
-    <row r="6" spans="1:60" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:59" x14ac:dyDescent="0.35">
       <c r="A6" s="1" t="s">
         <v>4</v>
       </c>
@@ -1447,11 +1419,8 @@
       <c r="BG6">
         <v>12.4</v>
       </c>
-      <c r="BH6" s="2" t="s">
-        <v>174</v>
-      </c>
     </row>
-    <row r="7" spans="1:60" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:59" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>5</v>
       </c>
@@ -1578,11 +1547,8 @@
       <c r="BG7">
         <v>69.2</v>
       </c>
-      <c r="BH7" s="2" t="s">
-        <v>173</v>
-      </c>
     </row>
-    <row r="8" spans="1:60" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:59" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>6</v>
       </c>
@@ -1745,11 +1711,8 @@
       <c r="BG8">
         <v>56.9</v>
       </c>
-      <c r="BH8" s="2" t="s">
-        <v>173</v>
-      </c>
     </row>
-    <row r="9" spans="1:60" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:59" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>7</v>
       </c>
@@ -1837,11 +1800,8 @@
       <c r="BG9">
         <v>51.3</v>
       </c>
-      <c r="BH9" s="2" t="s">
-        <v>173</v>
-      </c>
     </row>
-    <row r="10" spans="1:60" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:59" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>8</v>
       </c>
@@ -1929,11 +1889,8 @@
       <c r="BG10">
         <v>67</v>
       </c>
-      <c r="BH10" s="2" t="s">
-        <v>173</v>
-      </c>
     </row>
-    <row r="11" spans="1:60" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:59" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>9</v>
       </c>
@@ -2063,11 +2020,8 @@
       <c r="BG11">
         <v>62.8</v>
       </c>
-      <c r="BH11" s="2" t="s">
-        <v>173</v>
-      </c>
     </row>
-    <row r="12" spans="1:60" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:59" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
         <v>10</v>
       </c>
@@ -2155,11 +2109,8 @@
       <c r="BG12">
         <v>37.5</v>
       </c>
-      <c r="BH12" s="2" t="s">
-        <v>173</v>
-      </c>
     </row>
-    <row r="13" spans="1:60" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:59" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
         <v>11</v>
       </c>
@@ -2262,11 +2213,8 @@
       <c r="BG13">
         <v>74.900000000000006</v>
       </c>
-      <c r="BH13" s="2" t="s">
-        <v>173</v>
-      </c>
     </row>
-    <row r="14" spans="1:60" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:59" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
         <v>12</v>
       </c>
@@ -2303,11 +2251,8 @@
       <c r="BG14">
         <v>57</v>
       </c>
-      <c r="BH14" s="2" t="s">
-        <v>173</v>
-      </c>
     </row>
-    <row r="15" spans="1:60" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:59" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
         <v>13</v>
       </c>
@@ -2485,11 +2430,8 @@
       <c r="BG15">
         <v>53.5</v>
       </c>
-      <c r="BH15" s="2" t="s">
-        <v>173</v>
-      </c>
     </row>
-    <row r="16" spans="1:60" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:59" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
         <v>14</v>
       </c>
@@ -2574,11 +2516,8 @@
       <c r="BF16">
         <v>74.900000000000006</v>
       </c>
-      <c r="BH16" s="2" t="s">
-        <v>173</v>
-      </c>
     </row>
-    <row r="17" spans="1:60" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:59" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
         <v>15</v>
       </c>
@@ -2666,11 +2605,8 @@
       <c r="BG17">
         <v>46.9</v>
       </c>
-      <c r="BH17" s="2" t="s">
-        <v>173</v>
-      </c>
     </row>
-    <row r="18" spans="1:60" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:59" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
         <v>16</v>
       </c>
@@ -2743,11 +2679,8 @@
       <c r="BG18">
         <v>68.8</v>
       </c>
-      <c r="BH18" s="2" t="s">
-        <v>173</v>
-      </c>
     </row>
-    <row r="19" spans="1:60" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:59" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
         <v>17</v>
       </c>
@@ -2871,11 +2804,8 @@
       <c r="BG19">
         <v>58.4</v>
       </c>
-      <c r="BH19" s="2" t="s">
-        <v>173</v>
-      </c>
     </row>
-    <row r="20" spans="1:60" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:59" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
         <v>18</v>
       </c>
@@ -3053,11 +2983,8 @@
       <c r="BG20">
         <v>46.9</v>
       </c>
-      <c r="BH20" s="2" t="s">
-        <v>173</v>
-      </c>
     </row>
-    <row r="21" spans="1:60" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:59" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
         <v>19</v>
       </c>
@@ -3175,11 +3102,8 @@
       <c r="BG21">
         <v>39.299999999999997</v>
       </c>
-      <c r="BH21" s="2" t="s">
-        <v>173</v>
-      </c>
     </row>
-    <row r="22" spans="1:60" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:59" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
         <v>20</v>
       </c>
@@ -3327,11 +3251,8 @@
       <c r="BG22">
         <v>48.7</v>
       </c>
-      <c r="BH22" s="2" t="s">
-        <v>173</v>
-      </c>
     </row>
-    <row r="23" spans="1:60" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:59" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
         <v>21</v>
       </c>
@@ -3407,11 +3328,8 @@
       <c r="BG23">
         <v>55.8</v>
       </c>
-      <c r="BH23" s="2" t="s">
-        <v>173</v>
-      </c>
     </row>
-    <row r="24" spans="1:60" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:59" x14ac:dyDescent="0.35">
       <c r="A24" s="1" t="s">
         <v>22</v>
       </c>
@@ -3589,11 +3507,8 @@
       <c r="BG24">
         <v>58.7</v>
       </c>
-      <c r="BH24" s="2" t="s">
-        <v>174</v>
-      </c>
     </row>
-    <row r="25" spans="1:60" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:59" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
         <v>23</v>
       </c>
@@ -3771,11 +3686,8 @@
       <c r="BG25">
         <v>63.1</v>
       </c>
-      <c r="BH25" s="2" t="s">
-        <v>173</v>
-      </c>
     </row>
-    <row r="26" spans="1:60" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:59" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
         <v>24</v>
       </c>
@@ -3911,11 +3823,8 @@
       <c r="BG26">
         <v>40.9</v>
       </c>
-      <c r="BH26" s="2" t="s">
-        <v>173</v>
-      </c>
     </row>
-    <row r="27" spans="1:60" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:59" x14ac:dyDescent="0.35">
       <c r="A27" t="s">
         <v>25</v>
       </c>
@@ -4033,11 +3942,8 @@
       <c r="BG27">
         <v>58.3</v>
       </c>
-      <c r="BH27" s="2" t="s">
-        <v>173</v>
-      </c>
     </row>
-    <row r="28" spans="1:60" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:59" x14ac:dyDescent="0.35">
       <c r="A28" t="s">
         <v>26</v>
       </c>
@@ -4215,11 +4121,8 @@
       <c r="BG28">
         <v>42</v>
       </c>
-      <c r="BH28" s="2" t="s">
-        <v>173</v>
-      </c>
     </row>
-    <row r="29" spans="1:60" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:59" x14ac:dyDescent="0.35">
       <c r="A29" t="s">
         <v>27</v>
       </c>
@@ -4298,11 +4201,8 @@
       <c r="BG29">
         <v>39.700000000000003</v>
       </c>
-      <c r="BH29" s="2" t="s">
-        <v>173</v>
-      </c>
     </row>
-    <row r="30" spans="1:60" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:59" x14ac:dyDescent="0.35">
       <c r="A30" t="s">
         <v>28</v>
       </c>
@@ -4465,11 +4365,8 @@
       <c r="BG30">
         <v>52.7</v>
       </c>
-      <c r="BH30" s="2" t="s">
-        <v>173</v>
-      </c>
     </row>
-    <row r="31" spans="1:60" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:59" x14ac:dyDescent="0.35">
       <c r="A31" t="s">
         <v>29</v>
       </c>
@@ -4497,11 +4394,8 @@
       <c r="BD31">
         <v>64.7</v>
       </c>
-      <c r="BH31" s="2" t="s">
-        <v>173</v>
-      </c>
     </row>
-    <row r="32" spans="1:60" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:59" x14ac:dyDescent="0.35">
       <c r="A32" t="s">
         <v>30</v>
       </c>
@@ -4619,11 +4513,8 @@
       <c r="BG32">
         <v>61.3</v>
       </c>
-      <c r="BH32" s="2" t="s">
-        <v>173</v>
-      </c>
     </row>
-    <row r="33" spans="1:60" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:59" x14ac:dyDescent="0.35">
       <c r="A33" t="s">
         <v>31</v>
       </c>
@@ -4786,11 +4677,8 @@
       <c r="BG33">
         <v>39.299999999999997</v>
       </c>
-      <c r="BH33" s="2" t="s">
-        <v>173</v>
-      </c>
     </row>
-    <row r="34" spans="1:60" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:59" x14ac:dyDescent="0.35">
       <c r="A34" t="s">
         <v>32</v>
       </c>
@@ -4968,11 +4856,8 @@
       <c r="BG34">
         <v>33.5</v>
       </c>
-      <c r="BH34" s="2" t="s">
-        <v>173</v>
-      </c>
     </row>
-    <row r="35" spans="1:60" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:59" x14ac:dyDescent="0.35">
       <c r="A35" t="s">
         <v>33</v>
       </c>
@@ -5150,11 +5035,8 @@
       <c r="BG35">
         <v>57.6</v>
       </c>
-      <c r="BH35" s="2" t="s">
-        <v>173</v>
-      </c>
     </row>
-    <row r="36" spans="1:60" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:59" x14ac:dyDescent="0.35">
       <c r="A36" t="s">
         <v>34</v>
       </c>
@@ -5200,11 +5082,8 @@
       <c r="BG36">
         <v>51.6</v>
       </c>
-      <c r="BH36" s="2" t="s">
-        <v>173</v>
-      </c>
     </row>
-    <row r="37" spans="1:60" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:59" x14ac:dyDescent="0.35">
       <c r="A37" t="s">
         <v>35</v>
       </c>
@@ -5367,11 +5246,8 @@
       <c r="BG37">
         <v>55.7</v>
       </c>
-      <c r="BH37" s="2" t="s">
-        <v>173</v>
-      </c>
     </row>
-    <row r="38" spans="1:60" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:59" x14ac:dyDescent="0.35">
       <c r="A38" s="1" t="s">
         <v>36</v>
       </c>
@@ -5483,13 +5359,10 @@
       <c r="BE38">
         <v>55.7</v>
       </c>
-      <c r="BH38" s="2" t="s">
-        <v>173</v>
-      </c>
     </row>
-    <row r="39" spans="1:60" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:59" x14ac:dyDescent="0.35">
       <c r="A39" s="1" t="s">
-        <v>37</v>
+        <v>170</v>
       </c>
       <c r="AJ39">
         <v>26.8</v>
@@ -5563,13 +5436,10 @@
       <c r="BG39">
         <v>34.1</v>
       </c>
-      <c r="BH39" s="2" t="s">
-        <v>174</v>
-      </c>
     </row>
-    <row r="40" spans="1:60" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:59" x14ac:dyDescent="0.35">
       <c r="A40" t="s">
-        <v>38</v>
+        <v>171</v>
       </c>
       <c r="B40">
         <v>59.4</v>
@@ -5745,13 +5615,10 @@
       <c r="BG40">
         <v>38.5</v>
       </c>
-      <c r="BH40" s="2" t="s">
-        <v>174</v>
-      </c>
     </row>
-    <row r="41" spans="1:60" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:59" x14ac:dyDescent="0.35">
       <c r="A41" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="B41">
         <v>54.3</v>
@@ -5927,13 +5794,10 @@
       <c r="BG41">
         <v>68.3</v>
       </c>
-      <c r="BH41" s="2" t="s">
-        <v>173</v>
-      </c>
     </row>
-    <row r="42" spans="1:60" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:59" x14ac:dyDescent="0.35">
       <c r="A42" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="B42">
         <v>39</v>
@@ -6109,13 +5973,10 @@
       <c r="BG42">
         <v>41.6</v>
       </c>
-      <c r="BH42" s="2" t="s">
-        <v>173</v>
-      </c>
     </row>
-    <row r="43" spans="1:60" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:59" x14ac:dyDescent="0.35">
       <c r="A43" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="AK43">
         <v>50.4</v>
@@ -6186,13 +6047,10 @@
       <c r="BG43">
         <v>58.5</v>
       </c>
-      <c r="BH43" s="2" t="s">
-        <v>173</v>
-      </c>
     </row>
-    <row r="44" spans="1:60" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:59" x14ac:dyDescent="0.35">
       <c r="A44" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="AK44">
         <v>66.400000000000006</v>
@@ -6260,13 +6118,10 @@
       <c r="BF44">
         <v>75.7</v>
       </c>
-      <c r="BH44" s="2" t="s">
-        <v>173</v>
-      </c>
     </row>
-    <row r="45" spans="1:60" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:59" x14ac:dyDescent="0.35">
       <c r="A45" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="AI45">
         <v>50.6</v>
@@ -6343,13 +6198,10 @@
       <c r="BG45">
         <v>54.2</v>
       </c>
-      <c r="BH45" s="2" t="s">
-        <v>173</v>
-      </c>
     </row>
-    <row r="46" spans="1:60" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:59" x14ac:dyDescent="0.35">
       <c r="A46" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="L46">
         <v>56.8</v>
@@ -6495,13 +6347,10 @@
       <c r="BG46">
         <v>65.900000000000006</v>
       </c>
-      <c r="BH46" s="2" t="s">
-        <v>173</v>
-      </c>
     </row>
-    <row r="47" spans="1:60" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:59" x14ac:dyDescent="0.35">
       <c r="A47" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="BC47">
         <v>70.2</v>
@@ -6518,13 +6367,10 @@
       <c r="BG47">
         <v>71.900000000000006</v>
       </c>
-      <c r="BH47" s="2" t="s">
-        <v>173</v>
-      </c>
     </row>
-    <row r="48" spans="1:60" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:59" x14ac:dyDescent="0.35">
       <c r="A48" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="S48">
         <v>68.900000000000006</v>
@@ -6649,13 +6495,10 @@
       <c r="BG48">
         <v>58</v>
       </c>
-      <c r="BH48" s="2" t="s">
-        <v>173</v>
-      </c>
     </row>
-    <row r="49" spans="1:60" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:59" x14ac:dyDescent="0.35">
       <c r="A49" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="B49">
         <v>85.7</v>
@@ -6831,13 +6674,10 @@
       <c r="BG49">
         <v>62</v>
       </c>
-      <c r="BH49" s="2" t="s">
-        <v>173</v>
-      </c>
     </row>
-    <row r="50" spans="1:60" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:59" x14ac:dyDescent="0.35">
       <c r="A50" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="B50">
         <v>40.1</v>
@@ -7013,13 +6853,10 @@
       <c r="BG50">
         <v>52.1</v>
       </c>
-      <c r="BH50" s="2" t="s">
-        <v>173</v>
-      </c>
     </row>
-    <row r="51" spans="1:60" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:59" x14ac:dyDescent="0.35">
       <c r="A51" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="G51">
         <v>35.5</v>
@@ -7180,13 +7017,10 @@
       <c r="BG51">
         <v>60</v>
       </c>
-      <c r="BH51" s="2" t="s">
-        <v>173</v>
-      </c>
     </row>
-    <row r="52" spans="1:60" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:59" x14ac:dyDescent="0.35">
       <c r="A52" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="AV52">
         <v>15.2</v>
@@ -7224,13 +7058,10 @@
       <c r="BG52">
         <v>40.700000000000003</v>
       </c>
-      <c r="BH52" s="2" t="s">
-        <v>173</v>
-      </c>
     </row>
-    <row r="53" spans="1:60" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:59" x14ac:dyDescent="0.35">
       <c r="A53" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="AK53">
         <v>55</v>
@@ -7301,13 +7132,10 @@
       <c r="BG53">
         <v>60.4</v>
       </c>
-      <c r="BH53" s="2" t="s">
-        <v>173</v>
-      </c>
     </row>
-    <row r="54" spans="1:60" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:59" x14ac:dyDescent="0.35">
       <c r="A54" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="W54">
         <v>30.8</v>
@@ -7420,13 +7248,10 @@
       <c r="BG54">
         <v>36.9</v>
       </c>
-      <c r="BH54" s="2" t="s">
-        <v>173</v>
-      </c>
     </row>
-    <row r="55" spans="1:60" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:59" x14ac:dyDescent="0.35">
       <c r="A55" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="E55">
         <v>30.6</v>
@@ -7590,13 +7415,10 @@
       <c r="BF55">
         <v>56.4</v>
       </c>
-      <c r="BH55" s="2" t="s">
-        <v>173</v>
-      </c>
     </row>
-    <row r="56" spans="1:60" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:59" x14ac:dyDescent="0.35">
       <c r="A56" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="Q56">
         <v>45.7</v>
@@ -7727,13 +7549,10 @@
       <c r="BG56">
         <v>60.1</v>
       </c>
-      <c r="BH56" s="2" t="s">
-        <v>173</v>
-      </c>
     </row>
-    <row r="57" spans="1:60" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:59" x14ac:dyDescent="0.35">
       <c r="A57" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="L57">
         <v>52.6</v>
@@ -7879,13 +7698,10 @@
       <c r="BG57">
         <v>70.2</v>
       </c>
-      <c r="BH57" s="2" t="s">
-        <v>173</v>
-      </c>
     </row>
-    <row r="58" spans="1:60" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:59" x14ac:dyDescent="0.35">
       <c r="A58" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="B58">
         <v>33.9</v>
@@ -8061,13 +7877,10 @@
       <c r="BG58">
         <v>43</v>
       </c>
-      <c r="BH58" s="2" t="s">
-        <v>173</v>
-      </c>
     </row>
-    <row r="59" spans="1:60" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:59" x14ac:dyDescent="0.35">
       <c r="A59" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="H59">
         <v>59.5</v>
@@ -8225,13 +8038,10 @@
       <c r="BG59">
         <v>65.8</v>
       </c>
-      <c r="BH59" s="2" t="s">
-        <v>173</v>
-      </c>
     </row>
-    <row r="60" spans="1:60" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:59" x14ac:dyDescent="0.35">
       <c r="A60" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="V60">
         <v>37.200000000000003</v>
@@ -8347,13 +8157,10 @@
       <c r="BG60">
         <v>56.6</v>
       </c>
-      <c r="BH60" s="2" t="s">
-        <v>173</v>
-      </c>
     </row>
-    <row r="61" spans="1:60" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:59" x14ac:dyDescent="0.35">
       <c r="A61" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="AG61">
         <v>56.3</v>
@@ -8436,13 +8243,10 @@
       <c r="BG61">
         <v>61.9</v>
       </c>
-      <c r="BH61" s="2" t="s">
-        <v>173</v>
-      </c>
     </row>
-    <row r="62" spans="1:60" x14ac:dyDescent="0.35">
+    <row r="62" spans="1:59" x14ac:dyDescent="0.35">
       <c r="A62" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="Z62">
         <v>35</v>
@@ -8546,13 +8350,10 @@
       <c r="BG62">
         <v>52.2</v>
       </c>
-      <c r="BH62" s="2" t="s">
-        <v>173</v>
-      </c>
     </row>
-    <row r="63" spans="1:60" x14ac:dyDescent="0.35">
+    <row r="63" spans="1:59" x14ac:dyDescent="0.35">
       <c r="A63" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="AK63">
         <v>64</v>
@@ -8623,13 +8424,10 @@
       <c r="BG63">
         <v>68.900000000000006</v>
       </c>
-      <c r="BH63" s="2" t="s">
-        <v>173</v>
-      </c>
     </row>
-    <row r="64" spans="1:60" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:59" x14ac:dyDescent="0.35">
       <c r="A64" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="S64">
         <v>60.1</v>
@@ -8754,13 +8552,10 @@
       <c r="BG64">
         <v>66.2</v>
       </c>
-      <c r="BH64" s="2" t="s">
-        <v>173</v>
-      </c>
     </row>
-    <row r="65" spans="1:60" x14ac:dyDescent="0.35">
+    <row r="65" spans="1:59" x14ac:dyDescent="0.35">
       <c r="A65" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="G65">
         <v>54.2</v>
@@ -8921,13 +8716,10 @@
       <c r="BG65">
         <v>62.1</v>
       </c>
-      <c r="BH65" s="2" t="s">
-        <v>173</v>
-      </c>
     </row>
-    <row r="66" spans="1:60" x14ac:dyDescent="0.35">
+    <row r="66" spans="1:59" x14ac:dyDescent="0.35">
       <c r="A66" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="AB66">
         <v>41.2</v>
@@ -9025,13 +8817,10 @@
       <c r="BG66">
         <v>40.700000000000003</v>
       </c>
-      <c r="BH66" s="2" t="s">
-        <v>173</v>
-      </c>
     </row>
-    <row r="67" spans="1:60" x14ac:dyDescent="0.35">
+    <row r="67" spans="1:59" x14ac:dyDescent="0.35">
       <c r="A67" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="L67">
         <v>31.3</v>
@@ -9177,13 +8966,10 @@
       <c r="BG67">
         <v>32.299999999999997</v>
       </c>
-      <c r="BH67" s="2" t="s">
-        <v>173</v>
-      </c>
     </row>
-    <row r="68" spans="1:60" x14ac:dyDescent="0.35">
+    <row r="68" spans="1:59" x14ac:dyDescent="0.35">
       <c r="A68" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="B68">
         <v>38.5</v>
@@ -9359,13 +9145,10 @@
       <c r="BG68">
         <v>41.8</v>
       </c>
-      <c r="BH68" s="2" t="s">
-        <v>173</v>
-      </c>
     </row>
-    <row r="69" spans="1:60" x14ac:dyDescent="0.35">
+    <row r="69" spans="1:59" x14ac:dyDescent="0.35">
       <c r="A69" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="AG69">
         <v>39.200000000000003</v>
@@ -9448,13 +9231,10 @@
       <c r="BG69">
         <v>22.5</v>
       </c>
-      <c r="BH69" s="2" t="s">
-        <v>173</v>
-      </c>
     </row>
-    <row r="70" spans="1:60" x14ac:dyDescent="0.35">
+    <row r="70" spans="1:59" x14ac:dyDescent="0.35">
       <c r="A70" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="B70">
         <v>39.5</v>
@@ -9630,13 +9410,10 @@
       <c r="BG70">
         <v>51.7</v>
       </c>
-      <c r="BH70" s="2" t="s">
-        <v>173</v>
-      </c>
     </row>
-    <row r="71" spans="1:60" x14ac:dyDescent="0.35">
+    <row r="71" spans="1:59" x14ac:dyDescent="0.35">
       <c r="A71" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="AK71">
         <v>51.9</v>
@@ -9707,13 +9484,10 @@
       <c r="BG71">
         <v>54.9</v>
       </c>
-      <c r="BH71" s="2" t="s">
-        <v>173</v>
-      </c>
     </row>
-    <row r="72" spans="1:60" x14ac:dyDescent="0.35">
+    <row r="72" spans="1:59" x14ac:dyDescent="0.35">
       <c r="A72" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="AM72">
         <v>52.1</v>
@@ -9775,13 +9549,10 @@
       <c r="BF72">
         <v>63</v>
       </c>
-      <c r="BH72" s="2" t="s">
-        <v>173</v>
-      </c>
     </row>
-    <row r="73" spans="1:60" x14ac:dyDescent="0.35">
+    <row r="73" spans="1:59" x14ac:dyDescent="0.35">
       <c r="A73" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="B73">
         <v>31.1</v>
@@ -9957,13 +9728,10 @@
       <c r="BG73">
         <v>48.9</v>
       </c>
-      <c r="BH73" s="2" t="s">
-        <v>173</v>
-      </c>
     </row>
-    <row r="74" spans="1:60" x14ac:dyDescent="0.35">
+    <row r="74" spans="1:59" x14ac:dyDescent="0.35">
       <c r="A74" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="Y74">
         <v>39.299999999999997</v>
@@ -10070,13 +9838,10 @@
       <c r="BG74">
         <v>43.6</v>
       </c>
-      <c r="BH74" s="2" t="s">
-        <v>173</v>
-      </c>
     </row>
-    <row r="75" spans="1:60" x14ac:dyDescent="0.35">
+    <row r="75" spans="1:59" x14ac:dyDescent="0.35">
       <c r="A75" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="B75">
         <v>43.5</v>
@@ -10252,13 +10017,10 @@
       <c r="BG75">
         <v>65.400000000000006</v>
       </c>
-      <c r="BH75" s="2" t="s">
-        <v>173</v>
-      </c>
     </row>
-    <row r="76" spans="1:60" x14ac:dyDescent="0.35">
+    <row r="76" spans="1:59" x14ac:dyDescent="0.35">
       <c r="A76" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="AK76">
         <v>55.4</v>
@@ -10326,13 +10088,10 @@
       <c r="BF76">
         <v>55.3</v>
       </c>
-      <c r="BH76" s="2" t="s">
-        <v>173</v>
-      </c>
     </row>
-    <row r="77" spans="1:60" x14ac:dyDescent="0.35">
+    <row r="77" spans="1:59" x14ac:dyDescent="0.35">
       <c r="A77" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="AK77">
         <v>63.3</v>
@@ -10400,13 +10159,10 @@
       <c r="BF77">
         <v>69.8</v>
       </c>
-      <c r="BH77" s="2" t="s">
-        <v>173</v>
-      </c>
     </row>
-    <row r="78" spans="1:60" x14ac:dyDescent="0.35">
+    <row r="78" spans="1:59" x14ac:dyDescent="0.35">
       <c r="A78" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="AF78">
         <v>60.2</v>
@@ -10492,13 +10248,10 @@
       <c r="BG78">
         <v>66.3</v>
       </c>
-      <c r="BH78" s="2" t="s">
-        <v>173</v>
-      </c>
     </row>
-    <row r="79" spans="1:60" x14ac:dyDescent="0.35">
+    <row r="79" spans="1:59" x14ac:dyDescent="0.35">
       <c r="A79" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="AI79">
         <v>57.2</v>
@@ -10575,13 +10328,10 @@
       <c r="BG79">
         <v>59.9</v>
       </c>
-      <c r="BH79" s="2" t="s">
-        <v>173</v>
-      </c>
     </row>
-    <row r="80" spans="1:60" x14ac:dyDescent="0.35">
+    <row r="80" spans="1:59" x14ac:dyDescent="0.35">
       <c r="A80" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="AJ80">
         <v>63</v>
@@ -10652,13 +10402,10 @@
       <c r="BF80">
         <v>68.8</v>
       </c>
-      <c r="BH80" s="2" t="s">
-        <v>173</v>
-      </c>
     </row>
-    <row r="81" spans="1:60" x14ac:dyDescent="0.35">
+    <row r="81" spans="1:59" x14ac:dyDescent="0.35">
       <c r="A81" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="G81">
         <v>59.8</v>
@@ -10819,13 +10566,10 @@
       <c r="BG81">
         <v>58.8</v>
       </c>
-      <c r="BH81" s="2" t="s">
-        <v>173</v>
-      </c>
     </row>
-    <row r="82" spans="1:60" x14ac:dyDescent="0.35">
+    <row r="82" spans="1:59" x14ac:dyDescent="0.35">
       <c r="A82" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="AI82">
         <v>47</v>
@@ -10902,13 +10646,10 @@
       <c r="BG82">
         <v>57.4</v>
       </c>
-      <c r="BH82" s="2" t="s">
-        <v>173</v>
-      </c>
     </row>
-    <row r="83" spans="1:60" x14ac:dyDescent="0.35">
+    <row r="83" spans="1:59" x14ac:dyDescent="0.35">
       <c r="A83" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="B83">
         <v>40.299999999999997</v>
@@ -11084,13 +10825,10 @@
       <c r="BG83">
         <v>45.4</v>
       </c>
-      <c r="BH83" s="2" t="s">
-        <v>173</v>
-      </c>
     </row>
-    <row r="84" spans="1:60" x14ac:dyDescent="0.35">
+    <row r="84" spans="1:59" x14ac:dyDescent="0.35">
       <c r="A84" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="T84">
         <v>22</v>
@@ -11200,13 +10938,10 @@
       <c r="BC84">
         <v>67.5</v>
       </c>
-      <c r="BH84" s="2" t="s">
-        <v>173</v>
-      </c>
     </row>
-    <row r="85" spans="1:60" x14ac:dyDescent="0.35">
+    <row r="85" spans="1:59" x14ac:dyDescent="0.35">
       <c r="A85" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="BD85">
         <v>42.2</v>
@@ -11217,13 +10952,10 @@
       <c r="BF85">
         <v>61.4</v>
       </c>
-      <c r="BH85" s="2" t="s">
-        <v>173</v>
-      </c>
     </row>
-    <row r="86" spans="1:60" x14ac:dyDescent="0.35">
+    <row r="86" spans="1:59" x14ac:dyDescent="0.35">
       <c r="A86" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="AF86">
         <v>30.6</v>
@@ -11309,13 +11041,10 @@
       <c r="BG86">
         <v>50.4</v>
       </c>
-      <c r="BH86" s="2" t="s">
-        <v>173</v>
-      </c>
     </row>
-    <row r="87" spans="1:60" x14ac:dyDescent="0.35">
+    <row r="87" spans="1:59" x14ac:dyDescent="0.35">
       <c r="A87" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="AE87">
         <v>44.4</v>
@@ -11404,13 +11133,10 @@
       <c r="BG87">
         <v>41.5</v>
       </c>
-      <c r="BH87" s="2" t="s">
-        <v>173</v>
-      </c>
     </row>
-    <row r="88" spans="1:60" x14ac:dyDescent="0.35">
+    <row r="88" spans="1:59" x14ac:dyDescent="0.35">
       <c r="A88" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="AK88">
         <v>54.1</v>
@@ -11481,13 +11207,10 @@
       <c r="BG88">
         <v>64.400000000000006</v>
       </c>
-      <c r="BH88" s="2" t="s">
-        <v>173</v>
-      </c>
     </row>
-    <row r="89" spans="1:60" x14ac:dyDescent="0.35">
+    <row r="89" spans="1:59" x14ac:dyDescent="0.35">
       <c r="A89" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="AJ89">
         <v>61.9</v>
@@ -11561,13 +11284,10 @@
       <c r="BG89">
         <v>76</v>
       </c>
-      <c r="BH89" s="2" t="s">
-        <v>173</v>
-      </c>
     </row>
-    <row r="90" spans="1:60" x14ac:dyDescent="0.35">
+    <row r="90" spans="1:59" x14ac:dyDescent="0.35">
       <c r="A90" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="B90">
         <v>6.55</v>
@@ -11740,13 +11460,10 @@
       <c r="BF90">
         <v>52.6</v>
       </c>
-      <c r="BH90" s="2" t="s">
-        <v>173</v>
-      </c>
     </row>
-    <row r="91" spans="1:60" x14ac:dyDescent="0.35">
+    <row r="91" spans="1:59" x14ac:dyDescent="0.35">
       <c r="A91" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="AP91">
         <v>19.7</v>
@@ -11802,13 +11519,10 @@
       <c r="BG91">
         <v>53.6</v>
       </c>
-      <c r="BH91" s="2" t="s">
-        <v>173</v>
-      </c>
     </row>
-    <row r="92" spans="1:60" x14ac:dyDescent="0.35">
+    <row r="92" spans="1:59" x14ac:dyDescent="0.35">
       <c r="A92" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="AK92">
         <v>51.3</v>
@@ -11879,13 +11593,10 @@
       <c r="BG92">
         <v>60.3</v>
       </c>
-      <c r="BH92" s="2" t="s">
-        <v>173</v>
-      </c>
     </row>
-    <row r="93" spans="1:60" x14ac:dyDescent="0.35">
+    <row r="93" spans="1:59" x14ac:dyDescent="0.35">
       <c r="A93" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="AK93">
         <v>70.400000000000006</v>
@@ -11956,13 +11667,10 @@
       <c r="BG93">
         <v>78.900000000000006</v>
       </c>
-      <c r="BH93" s="2" t="s">
-        <v>173</v>
-      </c>
     </row>
-    <row r="94" spans="1:60" x14ac:dyDescent="0.35">
+    <row r="94" spans="1:59" x14ac:dyDescent="0.35">
       <c r="A94" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="AF94">
         <v>41.6</v>
@@ -12048,13 +11756,10 @@
       <c r="BG94">
         <v>54.2</v>
       </c>
-      <c r="BH94" s="2" t="s">
-        <v>173</v>
-      </c>
     </row>
-    <row r="95" spans="1:60" x14ac:dyDescent="0.35">
+    <row r="95" spans="1:59" x14ac:dyDescent="0.35">
       <c r="A95" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="H95">
         <v>55.1</v>
@@ -12209,13 +11914,10 @@
       <c r="BF95">
         <v>48.4</v>
       </c>
-      <c r="BH95" s="2" t="s">
-        <v>174</v>
-      </c>
     </row>
-    <row r="96" spans="1:60" x14ac:dyDescent="0.35">
+    <row r="96" spans="1:59" x14ac:dyDescent="0.35">
       <c r="A96" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="B96">
         <v>38.299999999999997</v>
@@ -12391,13 +12093,10 @@
       <c r="BG96">
         <v>52.4</v>
       </c>
-      <c r="BH96" s="2" t="s">
-        <v>173</v>
-      </c>
     </row>
-    <row r="97" spans="1:60" x14ac:dyDescent="0.35">
+    <row r="97" spans="1:59" x14ac:dyDescent="0.35">
       <c r="A97" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="AC97">
         <v>42.7</v>
@@ -12492,13 +12191,10 @@
       <c r="BG97">
         <v>51</v>
       </c>
-      <c r="BH97" s="2" t="s">
-        <v>173</v>
-      </c>
     </row>
-    <row r="98" spans="1:60" x14ac:dyDescent="0.35">
+    <row r="98" spans="1:59" x14ac:dyDescent="0.35">
       <c r="A98" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="AS98">
         <v>73.099999999999994</v>
@@ -12542,13 +12238,10 @@
       <c r="BF98">
         <v>70.7</v>
       </c>
-      <c r="BH98" s="2" t="s">
-        <v>173</v>
-      </c>
     </row>
-    <row r="99" spans="1:60" x14ac:dyDescent="0.35">
+    <row r="99" spans="1:59" x14ac:dyDescent="0.35">
       <c r="A99" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="I99">
         <v>18.8</v>
@@ -12703,13 +12396,10 @@
       <c r="BG99">
         <v>36.700000000000003</v>
       </c>
-      <c r="BH99" s="2" t="s">
-        <v>173</v>
-      </c>
     </row>
-    <row r="100" spans="1:60" x14ac:dyDescent="0.35">
+    <row r="100" spans="1:59" x14ac:dyDescent="0.35">
       <c r="A100" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="L100">
         <v>35.6</v>
@@ -12852,13 +12542,10 @@
       <c r="BF100">
         <v>72</v>
       </c>
-      <c r="BH100" s="2" t="s">
-        <v>173</v>
-      </c>
     </row>
-    <row r="101" spans="1:60" x14ac:dyDescent="0.35">
+    <row r="101" spans="1:59" x14ac:dyDescent="0.35">
       <c r="A101" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="AT101">
         <v>74.599999999999994</v>
@@ -12899,13 +12586,10 @@
       <c r="BF101">
         <v>68.900000000000006</v>
       </c>
-      <c r="BH101" s="2" t="s">
-        <v>173</v>
-      </c>
     </row>
-    <row r="102" spans="1:60" x14ac:dyDescent="0.35">
+    <row r="102" spans="1:59" x14ac:dyDescent="0.35">
       <c r="A102" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="B102">
         <v>32.1</v>
@@ -13081,13 +12765,10 @@
       <c r="BG102">
         <v>35.4</v>
       </c>
-      <c r="BH102" s="2" t="s">
-        <v>174</v>
-      </c>
     </row>
-    <row r="103" spans="1:60" x14ac:dyDescent="0.35">
+    <row r="103" spans="1:59" x14ac:dyDescent="0.35">
       <c r="A103" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="R103">
         <v>45.3</v>
@@ -13215,13 +12896,10 @@
       <c r="BG103">
         <v>66.900000000000006</v>
       </c>
-      <c r="BH103" s="2" t="s">
-        <v>174</v>
-      </c>
     </row>
-    <row r="104" spans="1:60" x14ac:dyDescent="0.35">
+    <row r="104" spans="1:59" x14ac:dyDescent="0.35">
       <c r="A104" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="G104">
         <v>56.9</v>
@@ -13382,13 +13060,10 @@
       <c r="BG104">
         <v>60.9</v>
       </c>
-      <c r="BH104" s="2" t="s">
-        <v>173</v>
-      </c>
     </row>
-    <row r="105" spans="1:60" x14ac:dyDescent="0.35">
+    <row r="105" spans="1:59" x14ac:dyDescent="0.35">
       <c r="A105" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="AK105">
         <v>33.1</v>
@@ -13459,13 +13134,10 @@
       <c r="BG105">
         <v>55.4</v>
       </c>
-      <c r="BH105" s="2" t="s">
-        <v>173</v>
-      </c>
     </row>
-    <row r="106" spans="1:60" x14ac:dyDescent="0.35">
+    <row r="106" spans="1:59" x14ac:dyDescent="0.35">
       <c r="A106" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="AP106">
         <v>58.2</v>
@@ -13521,13 +13193,10 @@
       <c r="BG106">
         <v>54.5</v>
       </c>
-      <c r="BH106" s="2" t="s">
-        <v>173</v>
-      </c>
     </row>
-    <row r="107" spans="1:60" x14ac:dyDescent="0.35">
+    <row r="107" spans="1:59" x14ac:dyDescent="0.35">
       <c r="A107" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="V107">
         <v>46.7</v>
@@ -13643,13 +13312,10 @@
       <c r="BG107">
         <v>49.5</v>
       </c>
-      <c r="BH107" s="2" t="s">
-        <v>173</v>
-      </c>
     </row>
-    <row r="108" spans="1:60" x14ac:dyDescent="0.35">
+    <row r="108" spans="1:59" x14ac:dyDescent="0.35">
       <c r="A108" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="AG108">
         <v>45.6</v>
@@ -13732,24 +13398,18 @@
       <c r="BG108">
         <v>54.2</v>
       </c>
-      <c r="BH108" s="2" t="s">
-        <v>173</v>
-      </c>
     </row>
-    <row r="109" spans="1:60" x14ac:dyDescent="0.35">
+    <row r="109" spans="1:59" x14ac:dyDescent="0.35">
       <c r="A109" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="BG109">
         <v>42.2</v>
       </c>
-      <c r="BH109" s="2" t="s">
-        <v>174</v>
-      </c>
     </row>
-    <row r="110" spans="1:60" x14ac:dyDescent="0.35">
+    <row r="110" spans="1:59" x14ac:dyDescent="0.35">
       <c r="A110" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="V110">
         <v>38.700000000000003</v>
@@ -13865,13 +13525,10 @@
       <c r="BG110">
         <v>58.4</v>
       </c>
-      <c r="BH110" s="2" t="s">
-        <v>173</v>
-      </c>
     </row>
-    <row r="111" spans="1:60" x14ac:dyDescent="0.35">
+    <row r="111" spans="1:59" x14ac:dyDescent="0.35">
       <c r="A111" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="BC111">
         <v>52.6</v>
@@ -13882,13 +13539,10 @@
       <c r="BE111">
         <v>81.599999999999994</v>
       </c>
-      <c r="BH111" s="2" t="s">
-        <v>173</v>
-      </c>
     </row>
-    <row r="112" spans="1:60" x14ac:dyDescent="0.35">
+    <row r="112" spans="1:59" x14ac:dyDescent="0.35">
       <c r="A112" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="B112">
         <v>98.6</v>
@@ -14064,13 +13718,10 @@
       <c r="BG112">
         <v>51.5</v>
       </c>
-      <c r="BH112" s="2" t="s">
-        <v>173</v>
-      </c>
     </row>
-    <row r="113" spans="1:60" x14ac:dyDescent="0.35">
+    <row r="113" spans="1:59" x14ac:dyDescent="0.35">
       <c r="A113" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="L113">
         <v>52.9</v>
@@ -14216,13 +13867,10 @@
       <c r="BG113">
         <v>70.400000000000006</v>
       </c>
-      <c r="BH113" s="2" t="s">
-        <v>173</v>
-      </c>
     </row>
-    <row r="114" spans="1:60" x14ac:dyDescent="0.35">
+    <row r="114" spans="1:59" x14ac:dyDescent="0.35">
       <c r="A114" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="M114">
         <v>50.9</v>
@@ -14359,13 +14007,10 @@
       <c r="BE114">
         <v>65.599999999999994</v>
       </c>
-      <c r="BH114" s="2" t="s">
-        <v>173</v>
-      </c>
     </row>
-    <row r="115" spans="1:60" x14ac:dyDescent="0.35">
+    <row r="115" spans="1:59" x14ac:dyDescent="0.35">
       <c r="A115" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="AJ115">
         <v>50.3</v>
@@ -14439,13 +14084,10 @@
       <c r="BG115">
         <v>51</v>
       </c>
-      <c r="BH115" s="2" t="s">
-        <v>173</v>
-      </c>
     </row>
-    <row r="116" spans="1:60" x14ac:dyDescent="0.35">
+    <row r="116" spans="1:59" x14ac:dyDescent="0.35">
       <c r="A116" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="B116">
         <v>20.8</v>
@@ -14621,13 +14263,10 @@
       <c r="BG116">
         <v>39</v>
       </c>
-      <c r="BH116" s="2" t="s">
-        <v>174</v>
-      </c>
     </row>
-    <row r="117" spans="1:60" x14ac:dyDescent="0.35">
+    <row r="117" spans="1:59" x14ac:dyDescent="0.35">
       <c r="A117" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="W117">
         <v>142</v>
@@ -14740,13 +14379,10 @@
       <c r="BG117">
         <v>55.8</v>
       </c>
-      <c r="BH117" s="2" t="s">
-        <v>173</v>
-      </c>
     </row>
-    <row r="118" spans="1:60" x14ac:dyDescent="0.35">
+    <row r="118" spans="1:59" x14ac:dyDescent="0.35">
       <c r="A118" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="L118">
         <v>55.3</v>
@@ -14892,13 +14528,10 @@
       <c r="BG118">
         <v>56.8</v>
       </c>
-      <c r="BH118" s="2" t="s">
-        <v>174</v>
-      </c>
     </row>
-    <row r="119" spans="1:60" x14ac:dyDescent="0.35">
+    <row r="119" spans="1:59" x14ac:dyDescent="0.35">
       <c r="A119" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="C119">
         <v>87.7</v>
@@ -14981,13 +14614,10 @@
       <c r="BF119">
         <v>43.7</v>
       </c>
-      <c r="BH119" s="2" t="s">
-        <v>173</v>
-      </c>
     </row>
-    <row r="120" spans="1:60" x14ac:dyDescent="0.35">
+    <row r="120" spans="1:59" x14ac:dyDescent="0.35">
       <c r="A120" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="B120">
         <v>36.1</v>
@@ -15163,13 +14793,10 @@
       <c r="BG120">
         <v>53.1</v>
       </c>
-      <c r="BH120" s="2" t="s">
-        <v>173</v>
-      </c>
     </row>
-    <row r="121" spans="1:60" x14ac:dyDescent="0.35">
+    <row r="121" spans="1:59" x14ac:dyDescent="0.35">
       <c r="A121" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="AJ121">
         <v>53.5</v>
@@ -15240,13 +14867,10 @@
       <c r="BF121">
         <v>63.4</v>
       </c>
-      <c r="BH121" s="2" t="s">
-        <v>173</v>
-      </c>
     </row>
-    <row r="122" spans="1:60" x14ac:dyDescent="0.35">
+    <row r="122" spans="1:59" x14ac:dyDescent="0.35">
       <c r="A122" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="L122">
         <v>59.8</v>
@@ -15392,13 +15016,10 @@
       <c r="BG122">
         <v>65.2</v>
       </c>
-      <c r="BH122" s="2" t="s">
-        <v>173</v>
-      </c>
     </row>
-    <row r="123" spans="1:60" x14ac:dyDescent="0.35">
+    <row r="123" spans="1:59" x14ac:dyDescent="0.35">
       <c r="A123" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="AG123">
         <v>41.4</v>
@@ -15481,13 +15102,10 @@
       <c r="BG123">
         <v>45.5</v>
       </c>
-      <c r="BH123" s="2" t="s">
-        <v>173</v>
-      </c>
     </row>
-    <row r="124" spans="1:60" x14ac:dyDescent="0.35">
+    <row r="124" spans="1:59" x14ac:dyDescent="0.35">
       <c r="A124" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="B124">
         <v>44.3</v>
@@ -15627,13 +15245,10 @@
       <c r="BF124">
         <v>55.2</v>
       </c>
-      <c r="BH124" s="2" t="s">
-        <v>173</v>
-      </c>
     </row>
-    <row r="125" spans="1:60" x14ac:dyDescent="0.35">
+    <row r="125" spans="1:59" x14ac:dyDescent="0.35">
       <c r="A125" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="B125">
         <v>41.8</v>
@@ -15809,13 +15424,10 @@
       <c r="BG125">
         <v>59.9</v>
       </c>
-      <c r="BH125" s="2" t="s">
-        <v>173</v>
-      </c>
     </row>
-    <row r="126" spans="1:60" x14ac:dyDescent="0.35">
+    <row r="126" spans="1:59" x14ac:dyDescent="0.35">
       <c r="A126" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="AK126">
         <v>49.1</v>
@@ -15886,13 +15498,10 @@
       <c r="BG126">
         <v>58.3</v>
       </c>
-      <c r="BH126" s="2" t="s">
-        <v>173</v>
-      </c>
     </row>
-    <row r="127" spans="1:60" x14ac:dyDescent="0.35">
+    <row r="127" spans="1:59" x14ac:dyDescent="0.35">
       <c r="A127" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="AK127">
         <v>58.5</v>
@@ -15963,13 +15572,10 @@
       <c r="BG127">
         <v>65.2</v>
       </c>
-      <c r="BH127" s="2" t="s">
-        <v>173</v>
-      </c>
     </row>
-    <row r="128" spans="1:60" x14ac:dyDescent="0.35">
+    <row r="128" spans="1:59" x14ac:dyDescent="0.35">
       <c r="A128" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="BA128">
         <v>26.7</v>
@@ -15989,13 +15595,10 @@
       <c r="BF128">
         <v>47.9</v>
       </c>
-      <c r="BH128" s="2" t="s">
-        <v>173</v>
-      </c>
     </row>
-    <row r="129" spans="1:60" x14ac:dyDescent="0.35">
+    <row r="129" spans="1:59" x14ac:dyDescent="0.35">
       <c r="A129" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="AF129">
         <v>24.2</v>
@@ -16081,13 +15684,10 @@
       <c r="BG129">
         <v>56.2</v>
       </c>
-      <c r="BH129" s="2" t="s">
-        <v>173</v>
-      </c>
     </row>
-    <row r="130" spans="1:60" x14ac:dyDescent="0.35">
+    <row r="130" spans="1:59" x14ac:dyDescent="0.35">
       <c r="A130" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="AE130">
         <v>30.6</v>
@@ -16176,13 +15776,10 @@
       <c r="BG130">
         <v>56.2</v>
       </c>
-      <c r="BH130" s="2" t="s">
-        <v>173</v>
-      </c>
     </row>
-    <row r="131" spans="1:60" x14ac:dyDescent="0.35">
+    <row r="131" spans="1:59" x14ac:dyDescent="0.35">
       <c r="A131" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="G131">
         <v>18.399999999999999</v>
@@ -16343,13 +15940,10 @@
       <c r="BG131">
         <v>46.4</v>
       </c>
-      <c r="BH131" s="2" t="s">
-        <v>173</v>
-      </c>
     </row>
-    <row r="132" spans="1:60" x14ac:dyDescent="0.35">
+    <row r="132" spans="1:59" x14ac:dyDescent="0.35">
       <c r="A132" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="AQ132">
         <v>74</v>
@@ -16402,13 +15996,10 @@
       <c r="BG132">
         <v>71.400000000000006</v>
       </c>
-      <c r="BH132" s="2" t="s">
-        <v>173</v>
-      </c>
     </row>
-    <row r="133" spans="1:60" x14ac:dyDescent="0.35">
+    <row r="133" spans="1:59" x14ac:dyDescent="0.35">
       <c r="A133" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="L133">
         <v>37.4</v>
@@ -16554,13 +16145,10 @@
       <c r="BG133">
         <v>52.5</v>
       </c>
-      <c r="BH133" s="2" t="s">
-        <v>173</v>
-      </c>
     </row>
-    <row r="134" spans="1:60" x14ac:dyDescent="0.35">
+    <row r="134" spans="1:59" x14ac:dyDescent="0.35">
       <c r="A134" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="V134">
         <v>54.8</v>
@@ -16676,13 +16264,10 @@
       <c r="BG134">
         <v>53.8</v>
       </c>
-      <c r="BH134" s="2" t="s">
-        <v>173</v>
-      </c>
     </row>
-    <row r="135" spans="1:60" x14ac:dyDescent="0.35">
+    <row r="135" spans="1:59" x14ac:dyDescent="0.35">
       <c r="A135" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="AK135">
         <v>41.1</v>
@@ -16753,13 +16338,10 @@
       <c r="BG135">
         <v>50</v>
       </c>
-      <c r="BH135" s="2" t="s">
-        <v>173</v>
-      </c>
     </row>
-    <row r="136" spans="1:60" x14ac:dyDescent="0.35">
+    <row r="136" spans="1:59" x14ac:dyDescent="0.35">
       <c r="A136" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="R136">
         <v>67.2</v>
@@ -16884,13 +16466,10 @@
       <c r="BF136">
         <v>71</v>
       </c>
-      <c r="BH136" s="2" t="s">
-        <v>173</v>
-      </c>
     </row>
-    <row r="137" spans="1:60" x14ac:dyDescent="0.35">
+    <row r="137" spans="1:59" x14ac:dyDescent="0.35">
       <c r="A137" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="F137">
         <v>33.6</v>
@@ -17054,13 +16633,10 @@
       <c r="BG137">
         <v>32.4</v>
       </c>
-      <c r="BH137" s="2" t="s">
-        <v>173</v>
-      </c>
     </row>
-    <row r="138" spans="1:60" x14ac:dyDescent="0.35">
+    <row r="138" spans="1:59" x14ac:dyDescent="0.35">
       <c r="A138" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="B138">
         <v>74.5</v>
@@ -17236,13 +16812,10 @@
       <c r="BG138">
         <v>70.400000000000006</v>
       </c>
-      <c r="BH138" s="2" t="s">
-        <v>173</v>
-      </c>
     </row>
-    <row r="139" spans="1:60" x14ac:dyDescent="0.35">
+    <row r="139" spans="1:59" x14ac:dyDescent="0.35">
       <c r="A139" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="AK139">
         <v>51.7</v>
@@ -17313,13 +16886,10 @@
       <c r="BG139">
         <v>55.9</v>
       </c>
-      <c r="BH139" s="2" t="s">
-        <v>173</v>
-      </c>
     </row>
-    <row r="140" spans="1:60" x14ac:dyDescent="0.35">
+    <row r="140" spans="1:59" x14ac:dyDescent="0.35">
       <c r="A140" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="AK140">
         <v>52.4</v>
@@ -17390,13 +16960,10 @@
       <c r="BG140">
         <v>56.4</v>
       </c>
-      <c r="BH140" s="2" t="s">
-        <v>173</v>
-      </c>
     </row>
-    <row r="141" spans="1:60" x14ac:dyDescent="0.35">
+    <row r="141" spans="1:59" x14ac:dyDescent="0.35">
       <c r="A141" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="B141">
         <v>48.4</v>
@@ -17572,13 +17139,10 @@
       <c r="BG141">
         <v>61.5</v>
       </c>
-      <c r="BH141" s="2" t="s">
-        <v>173</v>
-      </c>
     </row>
-    <row r="142" spans="1:60" x14ac:dyDescent="0.35">
+    <row r="142" spans="1:59" x14ac:dyDescent="0.35">
       <c r="A142" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="B142">
         <v>39.6</v>
@@ -17754,13 +17318,10 @@
       <c r="BG142">
         <v>52.8</v>
       </c>
-      <c r="BH142" s="2" t="s">
-        <v>173</v>
-      </c>
     </row>
-    <row r="143" spans="1:60" x14ac:dyDescent="0.35">
+    <row r="143" spans="1:59" x14ac:dyDescent="0.35">
       <c r="A143" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="AK143">
         <v>60.2</v>
@@ -17831,13 +17392,10 @@
       <c r="BG143">
         <v>66.400000000000006</v>
       </c>
-      <c r="BH143" s="2" t="s">
-        <v>173</v>
-      </c>
     </row>
-    <row r="144" spans="1:60" x14ac:dyDescent="0.35">
+    <row r="144" spans="1:59" x14ac:dyDescent="0.35">
       <c r="A144" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="B144">
         <v>47.2</v>
@@ -18013,13 +17571,10 @@
       <c r="BG144">
         <v>55.8</v>
       </c>
-      <c r="BH144" s="2" t="s">
-        <v>173</v>
-      </c>
     </row>
-    <row r="145" spans="1:60" x14ac:dyDescent="0.35">
+    <row r="145" spans="1:59" x14ac:dyDescent="0.35">
       <c r="A145" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="S145">
         <v>60.6</v>
@@ -18144,13 +17699,10 @@
       <c r="BG145">
         <v>60.9</v>
       </c>
-      <c r="BH145" s="2" t="s">
-        <v>173</v>
-      </c>
     </row>
-    <row r="146" spans="1:60" x14ac:dyDescent="0.35">
+    <row r="146" spans="1:59" x14ac:dyDescent="0.35">
       <c r="A146" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="S146">
         <v>62.7</v>
@@ -18275,13 +17827,10 @@
       <c r="BG146">
         <v>74.2</v>
       </c>
-      <c r="BH146" s="2" t="s">
-        <v>174</v>
-      </c>
     </row>
-    <row r="147" spans="1:60" x14ac:dyDescent="0.35">
+    <row r="147" spans="1:59" x14ac:dyDescent="0.35">
       <c r="A147" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="S147">
         <v>63.4</v>
@@ -18406,13 +17955,10 @@
       <c r="BG147">
         <v>62.3</v>
       </c>
-      <c r="BH147" s="2" t="s">
-        <v>173</v>
-      </c>
     </row>
-    <row r="148" spans="1:60" x14ac:dyDescent="0.35">
+    <row r="148" spans="1:59" x14ac:dyDescent="0.35">
       <c r="A148" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="X148">
         <v>44.8</v>
@@ -18522,13 +18068,10 @@
       <c r="BG148">
         <v>46.8</v>
       </c>
-      <c r="BH148" s="2" t="s">
-        <v>173</v>
-      </c>
     </row>
-    <row r="149" spans="1:60" x14ac:dyDescent="0.35">
+    <row r="149" spans="1:59" x14ac:dyDescent="0.35">
       <c r="A149" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="B149">
         <v>41.7</v>
@@ -18704,13 +18247,10 @@
       <c r="BG149">
         <v>53.2</v>
       </c>
-      <c r="BH149" s="2" t="s">
-        <v>173</v>
-      </c>
     </row>
-    <row r="150" spans="1:60" x14ac:dyDescent="0.35">
+    <row r="150" spans="1:59" x14ac:dyDescent="0.35">
       <c r="A150" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="G150">
         <v>30.9</v>
@@ -18868,13 +18408,10 @@
       <c r="BF150">
         <v>51</v>
       </c>
-      <c r="BH150" s="2" t="s">
-        <v>173</v>
-      </c>
     </row>
-    <row r="151" spans="1:60" x14ac:dyDescent="0.35">
+    <row r="151" spans="1:59" x14ac:dyDescent="0.35">
       <c r="A151" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="V151">
         <v>56.6</v>
@@ -18990,13 +18527,10 @@
       <c r="BG151">
         <v>65.2</v>
       </c>
-      <c r="BH151" s="2" t="s">
-        <v>173</v>
-      </c>
     </row>
-    <row r="152" spans="1:60" x14ac:dyDescent="0.35">
+    <row r="152" spans="1:59" x14ac:dyDescent="0.35">
       <c r="A152" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="AF152">
         <v>63.8</v>
@@ -19082,13 +18616,10 @@
       <c r="BG152">
         <v>71.2</v>
       </c>
-      <c r="BH152" s="2" t="s">
-        <v>174</v>
-      </c>
     </row>
-    <row r="153" spans="1:60" x14ac:dyDescent="0.35">
+    <row r="153" spans="1:59" x14ac:dyDescent="0.35">
       <c r="A153" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="AA153">
         <v>25.1</v>
@@ -19186,13 +18717,10 @@
       <c r="BF153">
         <v>42.3</v>
       </c>
-      <c r="BH153" s="2" t="s">
-        <v>173</v>
-      </c>
     </row>
-    <row r="154" spans="1:60" x14ac:dyDescent="0.35">
+    <row r="154" spans="1:59" x14ac:dyDescent="0.35">
       <c r="A154" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="AF154">
         <v>33.299999999999997</v>
@@ -19278,13 +18806,10 @@
       <c r="BG154">
         <v>37.5</v>
       </c>
-      <c r="BH154" s="2" t="s">
-        <v>173</v>
-      </c>
     </row>
-    <row r="155" spans="1:60" x14ac:dyDescent="0.35">
+    <row r="155" spans="1:59" x14ac:dyDescent="0.35">
       <c r="A155" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="AI155">
         <v>54.9</v>
@@ -19361,13 +18886,10 @@
       <c r="BG155">
         <v>56.3</v>
       </c>
-      <c r="BH155" s="2" t="s">
-        <v>173</v>
-      </c>
     </row>
-    <row r="156" spans="1:60" x14ac:dyDescent="0.35">
+    <row r="156" spans="1:59" x14ac:dyDescent="0.35">
       <c r="A156" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="AP156">
         <v>43.2</v>
@@ -19420,13 +18942,10 @@
       <c r="BF156">
         <v>43.3</v>
       </c>
-      <c r="BH156" s="2" t="s">
-        <v>173</v>
-      </c>
     </row>
-    <row r="157" spans="1:60" x14ac:dyDescent="0.35">
+    <row r="157" spans="1:59" x14ac:dyDescent="0.35">
       <c r="A157" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="B157">
         <v>29.6</v>
@@ -19602,13 +19121,10 @@
       <c r="BG157">
         <v>29.8</v>
       </c>
-      <c r="BH157" s="2" t="s">
-        <v>173</v>
-      </c>
     </row>
-    <row r="158" spans="1:60" x14ac:dyDescent="0.35">
+    <row r="158" spans="1:59" x14ac:dyDescent="0.35">
       <c r="A158" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="H158">
         <v>36.4</v>
@@ -19766,13 +19282,10 @@
       <c r="BG158">
         <v>59.6</v>
       </c>
-      <c r="BH158" s="2" t="s">
-        <v>173</v>
-      </c>
     </row>
-    <row r="159" spans="1:60" x14ac:dyDescent="0.35">
+    <row r="159" spans="1:59" x14ac:dyDescent="0.35">
       <c r="A159" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="B159">
         <v>25.8</v>
@@ -19948,13 +19461,10 @@
       <c r="BG159">
         <v>53.3</v>
       </c>
-      <c r="BH159" s="2" t="s">
-        <v>173</v>
-      </c>
     </row>
-    <row r="160" spans="1:60" x14ac:dyDescent="0.35">
+    <row r="160" spans="1:59" x14ac:dyDescent="0.35">
       <c r="A160" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="AC160">
         <v>32</v>
@@ -20028,13 +19538,10 @@
       <c r="AZ160">
         <v>28.1</v>
       </c>
-      <c r="BH160" s="2" t="s">
-        <v>173</v>
-      </c>
     </row>
-    <row r="161" spans="1:60" x14ac:dyDescent="0.35">
+    <row r="161" spans="1:59" x14ac:dyDescent="0.35">
       <c r="A161" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="B161">
         <v>33.700000000000003</v>
@@ -20210,13 +19717,10 @@
       <c r="BG161">
         <v>47.1</v>
       </c>
-      <c r="BH161" s="2" t="s">
-        <v>173</v>
-      </c>
     </row>
-    <row r="162" spans="1:60" x14ac:dyDescent="0.35">
+    <row r="162" spans="1:59" x14ac:dyDescent="0.35">
       <c r="A162" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="AC162">
         <v>29.9</v>
@@ -20311,13 +19815,10 @@
       <c r="BG162">
         <v>50.3</v>
       </c>
-      <c r="BH162" s="2" t="s">
-        <v>174</v>
-      </c>
     </row>
-    <row r="163" spans="1:60" x14ac:dyDescent="0.35">
+    <row r="163" spans="1:59" x14ac:dyDescent="0.35">
       <c r="A163" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="Q163">
         <v>25.5</v>
@@ -20448,13 +19949,10 @@
       <c r="BG163">
         <v>46.9</v>
       </c>
-      <c r="BH163" s="2" t="s">
-        <v>173</v>
-      </c>
     </row>
-    <row r="164" spans="1:60" x14ac:dyDescent="0.35">
+    <row r="164" spans="1:59" x14ac:dyDescent="0.35">
       <c r="A164" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="AF164">
         <v>67.3</v>
@@ -20540,13 +20038,10 @@
       <c r="BG164">
         <v>70.099999999999994</v>
       </c>
-      <c r="BH164" s="2" t="s">
-        <v>173</v>
-      </c>
     </row>
-    <row r="165" spans="1:60" x14ac:dyDescent="0.35">
+    <row r="165" spans="1:59" x14ac:dyDescent="0.35">
       <c r="A165" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="AM165">
         <v>72.099999999999994</v>
@@ -20608,13 +20103,10 @@
       <c r="BF165">
         <v>77</v>
       </c>
-      <c r="BH165" s="2" t="s">
-        <v>173</v>
-      </c>
     </row>
-    <row r="166" spans="1:60" x14ac:dyDescent="0.35">
+    <row r="166" spans="1:59" x14ac:dyDescent="0.35">
       <c r="A166" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="Y166">
         <v>53.5</v>
@@ -20721,13 +20213,10 @@
       <c r="BG166">
         <v>61.2</v>
       </c>
-      <c r="BH166" s="2" t="s">
-        <v>173</v>
-      </c>
     </row>
-    <row r="167" spans="1:60" x14ac:dyDescent="0.35">
+    <row r="167" spans="1:59" x14ac:dyDescent="0.35">
       <c r="A167" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="AC167">
         <v>31.5</v>
@@ -20822,13 +20311,10 @@
       <c r="BG167">
         <v>42.5</v>
       </c>
-      <c r="BH167" s="2" t="s">
-        <v>174</v>
-      </c>
     </row>
-    <row r="168" spans="1:60" x14ac:dyDescent="0.35">
+    <row r="168" spans="1:59" x14ac:dyDescent="0.35">
       <c r="A168" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="J168">
         <v>50.4</v>
@@ -20971,13 +20457,10 @@
       <c r="BD168">
         <v>46.8</v>
       </c>
-      <c r="BH168" s="2" t="s">
-        <v>173</v>
-      </c>
     </row>
-    <row r="169" spans="1:60" x14ac:dyDescent="0.35">
+    <row r="169" spans="1:59" x14ac:dyDescent="0.35">
       <c r="A169" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="AB169">
         <v>33.1</v>
@@ -21072,13 +20555,10 @@
       <c r="BF169">
         <v>40.9</v>
       </c>
-      <c r="BH169" s="2" t="s">
-        <v>173</v>
-      </c>
     </row>
-    <row r="170" spans="1:60" x14ac:dyDescent="0.35">
+    <row r="170" spans="1:59" x14ac:dyDescent="0.35">
       <c r="A170" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="AP170">
         <v>31.2</v>
@@ -21131,13 +20611,10 @@
       <c r="BF170">
         <v>9.52</v>
       </c>
-      <c r="BH170" s="2" t="s">
-        <v>173</v>
-      </c>
     </row>
-    <row r="171" spans="1:60" x14ac:dyDescent="0.35">
+    <row r="171" spans="1:59" x14ac:dyDescent="0.35">
       <c r="A171" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="Y171">
         <v>30.6</v>
@@ -21244,13 +20721,10 @@
       <c r="BG171">
         <v>52.7</v>
       </c>
-      <c r="BH171" s="2" t="s">
-        <v>173</v>
-      </c>
     </row>
-    <row r="172" spans="1:60" x14ac:dyDescent="0.35">
+    <row r="172" spans="1:59" x14ac:dyDescent="0.35">
       <c r="A172" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="F172">
         <v>95</v>
@@ -21413,89 +20887,6 @@
       </c>
       <c r="BG172">
         <v>56.3</v>
-      </c>
-      <c r="BH172" s="2" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="173" spans="1:60" x14ac:dyDescent="0.35">
-      <c r="BH173" s="2" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="174" spans="1:60" x14ac:dyDescent="0.35">
-      <c r="BH174" s="2" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="175" spans="1:60" x14ac:dyDescent="0.35">
-      <c r="BH175" s="2" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="176" spans="1:60" x14ac:dyDescent="0.35">
-      <c r="BH176" s="2" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="177" spans="60:60" x14ac:dyDescent="0.35">
-      <c r="BH177" s="2" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="178" spans="60:60" x14ac:dyDescent="0.35">
-      <c r="BH178" s="2" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="179" spans="60:60" x14ac:dyDescent="0.35">
-      <c r="BH179" s="2" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="180" spans="60:60" x14ac:dyDescent="0.35">
-      <c r="BH180" s="2" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="181" spans="60:60" x14ac:dyDescent="0.35">
-      <c r="BH181" s="2" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="182" spans="60:60" x14ac:dyDescent="0.35">
-      <c r="BH182" s="2" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="183" spans="60:60" x14ac:dyDescent="0.35">
-      <c r="BH183" s="2" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="184" spans="60:60" x14ac:dyDescent="0.35">
-      <c r="BH184" s="2" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="185" spans="60:60" x14ac:dyDescent="0.35">
-      <c r="BH185" s="2" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="186" spans="60:60" x14ac:dyDescent="0.35">
-      <c r="BH186" s="2" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="187" spans="60:60" x14ac:dyDescent="0.35">
-      <c r="BH187" s="2" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="188" spans="60:60" x14ac:dyDescent="0.35">
-      <c r="BH188" s="2" t="s">
-        <v>174</v>
       </c>
     </row>
   </sheetData>

--- a/services_percent_of_gdp.xlsx
+++ b/services_percent_of_gdp.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\arthu\Documents\Projeto1CD\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C58D443E-33DB-4C90-A329-5776355B49F5}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5F3B9037-4DA3-4D89-8EC5-2091FD3E5349}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3060" yWindow="2840" windowWidth="10800" windowHeight="7360" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="services_percent_of_gdp" sheetId="1" r:id="rId1"/>
@@ -922,8 +922,8 @@
   <sheetPr codeName="services_percent_of_gdp"/>
   <dimension ref="A1:BG172"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
-      <selection activeCell="A41" sqref="A41"/>
+    <sheetView tabSelected="1" topLeftCell="A47" workbookViewId="0">
+      <selection activeCell="A132" sqref="A132"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
